--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20191107.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20191107.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB57B92-0601-45D5-8763-CACA4DB45F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin-map" sheetId="6" r:id="rId1"/>
@@ -15,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$X$79</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2583,11 +2584,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3931,6 +3932,264 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3946,59 +4205,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4017,221 +4228,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="1"/>
+    <cellStyle name="표준 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4271,7 +4272,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4337,7 +4338,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4398,7 +4399,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4459,7 +4460,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4548,7 +4549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4581,9 +4582,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4616,6 +4634,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4791,45 +4826,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
-    <col min="6" max="9" width="18.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.8984375" style="5" customWidth="1"/>
+    <col min="6" max="9" width="18.09765625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.69921875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.5" style="176" customWidth="1"/>
-    <col min="12" max="12" width="25.25" style="5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24.125" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="44.625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="25.25" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.25" style="5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="23.125" style="5" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="24.125" style="5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="27.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.19921875" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.59765625" style="5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.09765625" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="44.59765625" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="25.19921875" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.19921875" style="5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.09765625" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="24.09765625" style="5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.59765625" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="27.19921875" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B1" s="51" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="17.25" thickBot="1">
+    <row r="2" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="15" t="s">
         <v>523</v>
       </c>
@@ -4851,11 +4886,11 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="2:24">
-      <c r="B3" s="263" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B3" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="264"/>
+      <c r="C3" s="336"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4867,7 +4902,7 @@
       <c r="H3" s="227"/>
       <c r="I3" s="227"/>
       <c r="J3" s="227"/>
-      <c r="K3" s="284"/>
+      <c r="K3" s="255"/>
       <c r="L3" s="22" t="s">
         <v>74</v>
       </c>
@@ -4887,11 +4922,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="265" t="s">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B4" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="266"/>
+      <c r="C4" s="338"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4903,7 +4938,7 @@
       <c r="H4" s="228"/>
       <c r="I4" s="228"/>
       <c r="J4" s="228"/>
-      <c r="K4" s="285"/>
+      <c r="K4" s="256"/>
       <c r="L4" s="9" t="s">
         <v>76</v>
       </c>
@@ -4925,11 +4960,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="265" t="s">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B5" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="266"/>
+      <c r="C5" s="338"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -4943,7 +4978,7 @@
       <c r="H5" s="228"/>
       <c r="I5" s="228"/>
       <c r="J5" s="228"/>
-      <c r="K5" s="285"/>
+      <c r="K5" s="256"/>
       <c r="L5" s="9" t="s">
         <v>391</v>
       </c>
@@ -4965,11 +5000,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:24">
-      <c r="B6" s="265" t="s">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B6" s="337" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="266"/>
+      <c r="C6" s="338"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4981,7 +5016,7 @@
       <c r="H6" s="228"/>
       <c r="I6" s="228"/>
       <c r="J6" s="228"/>
-      <c r="K6" s="285"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="9" t="s">
         <v>195</v>
       </c>
@@ -4997,11 +5032,11 @@
       </c>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="2:24" ht="17.25" thickBot="1">
-      <c r="B7" s="267" t="s">
+    <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="339" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="268"/>
+      <c r="C7" s="340"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -5011,7 +5046,7 @@
       <c r="H7" s="229"/>
       <c r="I7" s="229"/>
       <c r="J7" s="229"/>
-      <c r="K7" s="286"/>
+      <c r="K7" s="257"/>
       <c r="L7" s="24" t="s">
         <v>77</v>
       </c>
@@ -5033,7 +5068,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E8" s="72" t="s">
         <v>371</v>
       </c>
@@ -5055,7 +5090,7 @@
       </c>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E9" s="72" t="s">
         <v>372</v>
       </c>
@@ -5083,7 +5118,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E10" s="72" t="s">
         <v>373</v>
       </c>
@@ -5094,7 +5129,7 @@
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
-      <c r="K10" s="287"/>
+      <c r="K10" s="258"/>
       <c r="L10" s="9" t="s">
         <v>396</v>
       </c>
@@ -5110,7 +5145,7 @@
       </c>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E11" s="72" t="s">
         <v>374</v>
       </c>
@@ -5121,7 +5156,7 @@
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
-      <c r="K11" s="287"/>
+      <c r="K11" s="258"/>
       <c r="L11" s="9" t="s">
         <v>397</v>
       </c>
@@ -5139,7 +5174,7 @@
       </c>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="2:24" ht="17.25" thickBot="1">
+    <row r="12" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="73" t="s">
         <v>171</v>
       </c>
@@ -5150,7 +5185,7 @@
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
-      <c r="K12" s="287"/>
+      <c r="K12" s="258"/>
       <c r="L12" s="26" t="s">
         <v>398</v>
       </c>
@@ -5168,56 +5203,56 @@
       </c>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" spans="2:24" ht="17.25" thickBot="1"/>
-    <row r="14" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B14" s="259" t="s">
+    <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="345" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260" t="s">
+      <c r="C14" s="333"/>
+      <c r="D14" s="333" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="260" t="s">
+      <c r="E14" s="333" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="277"/>
-      <c r="G14" s="255" t="s">
+      <c r="F14" s="334"/>
+      <c r="G14" s="341" t="s">
         <v>645</v>
       </c>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="288"/>
-      <c r="L14" s="269" t="s">
+      <c r="H14" s="342"/>
+      <c r="I14" s="342"/>
+      <c r="J14" s="343"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="324" t="s">
         <v>399</v>
       </c>
-      <c r="M14" s="270"/>
-      <c r="N14" s="269" t="s">
+      <c r="M14" s="325"/>
+      <c r="N14" s="324" t="s">
         <v>400</v>
       </c>
-      <c r="O14" s="271"/>
-      <c r="P14" s="271"/>
-      <c r="Q14" s="271"/>
-      <c r="R14" s="272"/>
-      <c r="S14" s="269" t="s">
+      <c r="O14" s="326"/>
+      <c r="P14" s="326"/>
+      <c r="Q14" s="326"/>
+      <c r="R14" s="327"/>
+      <c r="S14" s="324" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="271"/>
-      <c r="U14" s="270" t="s">
+      <c r="T14" s="326"/>
+      <c r="U14" s="325" t="s">
         <v>375</v>
       </c>
-      <c r="V14" s="273"/>
-      <c r="W14" s="273"/>
-      <c r="X14" s="274"/>
-    </row>
-    <row r="15" spans="2:24" ht="17.25" thickBot="1">
+      <c r="V14" s="328"/>
+      <c r="W14" s="328"/>
+      <c r="X14" s="329"/>
+    </row>
+    <row r="15" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="98" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="99" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="261"/>
+      <c r="D15" s="346"/>
       <c r="E15" s="99" t="s">
         <v>162</v>
       </c>
@@ -5227,7 +5262,7 @@
       <c r="G15" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="320" t="s">
+      <c r="H15" s="288" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="101" t="s">
@@ -5236,7 +5271,7 @@
       <c r="J15" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="289"/>
+      <c r="K15" s="260"/>
       <c r="L15" s="117" t="s">
         <v>401</v>
       </c>
@@ -5277,8 +5312,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="2:24" s="18" customFormat="1">
-      <c r="B16" s="308">
+    <row r="16" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="276">
         <v>1</v>
       </c>
       <c r="C16" s="253" t="s">
@@ -5287,17 +5322,17 @@
       <c r="D16" s="253" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="258" t="s">
+      <c r="E16" s="344" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="258"/>
+      <c r="F16" s="344"/>
       <c r="G16" s="253"/>
       <c r="H16" s="253"/>
       <c r="I16" s="246" t="s">
         <v>562</v>
       </c>
       <c r="J16" s="253"/>
-      <c r="K16" s="324"/>
+      <c r="K16" s="292"/>
       <c r="L16" s="230"/>
       <c r="M16" s="122"/>
       <c r="N16" s="123"/>
@@ -5312,8 +5347,8 @@
       <c r="W16" s="28"/>
       <c r="X16" s="40"/>
     </row>
-    <row r="17" spans="2:24">
-      <c r="B17" s="309">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B17" s="277">
         <v>2</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -5332,7 +5367,7 @@
       <c r="H17" s="244"/>
       <c r="I17" s="244"/>
       <c r="J17" s="244"/>
-      <c r="K17" s="300"/>
+      <c r="K17" s="271"/>
       <c r="L17" s="231" t="s">
         <v>407</v>
       </c>
@@ -5367,8 +5402,8 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="2:24">
-      <c r="B18" s="310">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B18" s="278">
         <v>3</v>
       </c>
       <c r="C18" s="249" t="s">
@@ -5389,7 +5424,7 @@
         <v>563</v>
       </c>
       <c r="J18" s="244"/>
-      <c r="K18" s="300"/>
+      <c r="K18" s="271"/>
       <c r="L18" s="231" t="s">
         <v>409</v>
       </c>
@@ -5424,8 +5459,8 @@
       </c>
       <c r="X18" s="80"/>
     </row>
-    <row r="19" spans="2:24">
-      <c r="B19" s="310">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B19" s="278">
         <v>4</v>
       </c>
       <c r="C19" s="249" t="s">
@@ -5446,7 +5481,7 @@
         <v>563</v>
       </c>
       <c r="J19" s="244"/>
-      <c r="K19" s="300"/>
+      <c r="K19" s="271"/>
       <c r="L19" s="231" t="s">
         <v>409</v>
       </c>
@@ -5481,8 +5516,8 @@
       </c>
       <c r="X19" s="80"/>
     </row>
-    <row r="20" spans="2:24">
-      <c r="B20" s="311">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B20" s="279">
         <v>5</v>
       </c>
       <c r="C20" s="95" t="s">
@@ -5505,7 +5540,7 @@
       <c r="J20" s="84" t="s">
         <v>619</v>
       </c>
-      <c r="K20" s="325"/>
+      <c r="K20" s="293"/>
       <c r="L20" s="231" t="s">
         <v>409</v>
       </c>
@@ -5540,8 +5575,8 @@
       </c>
       <c r="X20" s="80"/>
     </row>
-    <row r="21" spans="2:24">
-      <c r="B21" s="310">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B21" s="278">
         <v>6</v>
       </c>
       <c r="C21" s="250" t="s">
@@ -5562,7 +5597,7 @@
         <v>564</v>
       </c>
       <c r="J21" s="244"/>
-      <c r="K21" s="300"/>
+      <c r="K21" s="271"/>
       <c r="L21" s="231" t="s">
         <v>409</v>
       </c>
@@ -5597,8 +5632,8 @@
       </c>
       <c r="X21" s="80"/>
     </row>
-    <row r="22" spans="2:24">
-      <c r="B22" s="312">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B22" s="280">
         <v>7</v>
       </c>
       <c r="C22" s="254" t="s">
@@ -5607,17 +5642,17 @@
       <c r="D22" s="254" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="262" t="s">
+      <c r="E22" s="347" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="262"/>
+      <c r="F22" s="347"/>
       <c r="G22" s="254"/>
       <c r="H22" s="254"/>
       <c r="I22" s="254" t="s">
         <v>565</v>
       </c>
       <c r="J22" s="254"/>
-      <c r="K22" s="290"/>
+      <c r="K22" s="261"/>
       <c r="L22" s="232" t="s">
         <v>411</v>
       </c>
@@ -5652,8 +5687,8 @@
       </c>
       <c r="X22" s="38"/>
     </row>
-    <row r="23" spans="2:24" ht="33">
-      <c r="B23" s="309">
+    <row r="23" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B23" s="277">
         <v>8</v>
       </c>
       <c r="C23" s="96" t="s">
@@ -5668,10 +5703,10 @@
       <c r="F23" s="83" t="s">
         <v>541</v>
       </c>
-      <c r="G23" s="298" t="s">
+      <c r="G23" s="269" t="s">
         <v>541</v>
       </c>
-      <c r="H23" s="298" t="s">
+      <c r="H23" s="269" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="33" t="s">
@@ -5680,7 +5715,7 @@
       <c r="J23" s="36" t="s">
         <v>603</v>
       </c>
-      <c r="K23" s="326" t="s">
+      <c r="K23" s="294" t="s">
         <v>605</v>
       </c>
       <c r="L23" s="233" t="s">
@@ -5719,7 +5754,7 @@
       </c>
       <c r="X23" s="30"/>
     </row>
-    <row r="24" spans="2:24">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B24" s="216">
         <v>9</v>
       </c>
@@ -5735,10 +5770,10 @@
       <c r="F24" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="298" t="s">
+      <c r="G24" s="269" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="298" t="s">
+      <c r="H24" s="269" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="33" t="s">
@@ -5747,7 +5782,7 @@
       <c r="J24" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="K24" s="326" t="s">
+      <c r="K24" s="294" t="s">
         <v>620</v>
       </c>
       <c r="L24" s="234" t="s">
@@ -5784,7 +5819,7 @@
       </c>
       <c r="X24" s="30"/>
     </row>
-    <row r="25" spans="2:24">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B25" s="216">
         <v>10</v>
       </c>
@@ -5800,10 +5835,10 @@
       <c r="F25" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="298" t="s">
+      <c r="G25" s="269" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="298" t="s">
+      <c r="H25" s="269" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="33" t="s">
@@ -5812,7 +5847,7 @@
       <c r="J25" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="K25" s="327" t="s">
+      <c r="K25" s="295" t="s">
         <v>621</v>
       </c>
       <c r="L25" s="234" t="s">
@@ -5849,7 +5884,7 @@
       </c>
       <c r="X25" s="30"/>
     </row>
-    <row r="26" spans="2:24">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B26" s="216">
         <v>11</v>
       </c>
@@ -5865,10 +5900,10 @@
       <c r="F26" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="298" t="s">
+      <c r="G26" s="269" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="298" t="s">
+      <c r="H26" s="269" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="33" t="s">
@@ -5877,7 +5912,7 @@
       <c r="J26" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="K26" s="327" t="s">
+      <c r="K26" s="295" t="s">
         <v>622</v>
       </c>
       <c r="L26" s="234" t="s">
@@ -5912,8 +5947,8 @@
       </c>
       <c r="X26" s="200"/>
     </row>
-    <row r="27" spans="2:24">
-      <c r="B27" s="313">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B27" s="281">
         <v>12</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -5922,17 +5957,17 @@
       <c r="D27" s="251" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="275" t="s">
+      <c r="E27" s="330" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="275"/>
-      <c r="G27" s="323"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="291"/>
       <c r="H27" s="251"/>
       <c r="I27" s="251" t="s">
         <v>566</v>
       </c>
       <c r="J27" s="251"/>
-      <c r="K27" s="299"/>
+      <c r="K27" s="270"/>
       <c r="L27" s="235"/>
       <c r="M27" s="136"/>
       <c r="N27" s="12"/>
@@ -5947,8 +5982,8 @@
       <c r="W27" s="90"/>
       <c r="X27" s="21"/>
     </row>
-    <row r="28" spans="2:24">
-      <c r="B28" s="313">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B28" s="281">
         <v>13</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -5957,17 +5992,17 @@
       <c r="D28" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="275" t="s">
+      <c r="E28" s="330" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="275"/>
-      <c r="G28" s="323"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="291"/>
       <c r="H28" s="251"/>
       <c r="I28" s="243" t="s">
         <v>562</v>
       </c>
       <c r="J28" s="251"/>
-      <c r="K28" s="299"/>
+      <c r="K28" s="270"/>
       <c r="L28" s="235"/>
       <c r="M28" s="136"/>
       <c r="N28" s="12"/>
@@ -5982,8 +6017,8 @@
       <c r="W28" s="90"/>
       <c r="X28" s="21"/>
     </row>
-    <row r="29" spans="2:24">
-      <c r="B29" s="309">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B29" s="277">
         <v>14</v>
       </c>
       <c r="C29" s="96" t="s">
@@ -5998,10 +6033,10 @@
       <c r="F29" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="298" t="s">
+      <c r="G29" s="269" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="298" t="s">
+      <c r="H29" s="269" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="33" t="s">
@@ -6010,7 +6045,7 @@
       <c r="J29" s="33" t="s">
         <v>610</v>
       </c>
-      <c r="K29" s="328"/>
+      <c r="K29" s="296"/>
       <c r="L29" s="231" t="s">
         <v>409</v>
       </c>
@@ -6045,7 +6080,7 @@
       </c>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="2:24" ht="33">
+    <row r="30" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B30" s="216">
         <v>15</v>
       </c>
@@ -6061,10 +6096,10 @@
       <c r="F30" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="298" t="s">
+      <c r="G30" s="269" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="298" t="s">
+      <c r="H30" s="269" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="33" t="s">
@@ -6073,7 +6108,7 @@
       <c r="J30" s="33" t="s">
         <v>609</v>
       </c>
-      <c r="K30" s="328"/>
+      <c r="K30" s="296"/>
       <c r="L30" s="236" t="s">
         <v>427</v>
       </c>
@@ -6104,8 +6139,8 @@
       <c r="W30" s="61"/>
       <c r="X30" s="200"/>
     </row>
-    <row r="31" spans="2:24" ht="17.25" thickBot="1">
-      <c r="B31" s="329">
+    <row r="31" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="297">
         <v>16</v>
       </c>
       <c r="C31" s="102" t="s">
@@ -6120,19 +6155,19 @@
       <c r="F31" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="330" t="s">
+      <c r="G31" s="298" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="330" t="s">
+      <c r="H31" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="295" t="s">
+      <c r="I31" s="266" t="s">
         <v>538</v>
       </c>
-      <c r="J31" s="295" t="s">
+      <c r="J31" s="266" t="s">
         <v>612</v>
       </c>
-      <c r="K31" s="331" t="s">
+      <c r="K31" s="299" t="s">
         <v>611</v>
       </c>
       <c r="L31" s="236" t="s">
@@ -6159,27 +6194,27 @@
       <c r="W31" s="212"/>
       <c r="X31" s="213"/>
     </row>
-    <row r="32" spans="2:24">
-      <c r="B32" s="321">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B32" s="289">
         <v>17</v>
       </c>
-      <c r="C32" s="292" t="s">
+      <c r="C32" s="263" t="s">
         <v>382</v>
       </c>
-      <c r="D32" s="293" t="s">
+      <c r="D32" s="264" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="293" t="s">
+      <c r="E32" s="264" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="293" t="s">
+      <c r="F32" s="264" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="294"/>
-      <c r="H32" s="294"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="322"/>
+      <c r="G32" s="265"/>
+      <c r="H32" s="265"/>
+      <c r="I32" s="265"/>
+      <c r="J32" s="265"/>
+      <c r="K32" s="290"/>
       <c r="L32" s="231" t="s">
         <v>409</v>
       </c>
@@ -6214,8 +6249,8 @@
       </c>
       <c r="X32" s="108"/>
     </row>
-    <row r="33" spans="2:28">
-      <c r="B33" s="313">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B33" s="281">
         <v>18</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -6224,17 +6259,17 @@
       <c r="D33" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="275" t="s">
+      <c r="E33" s="330" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="275"/>
+      <c r="F33" s="330"/>
       <c r="G33" s="251"/>
       <c r="H33" s="251"/>
       <c r="I33" s="251" t="s">
         <v>566</v>
       </c>
       <c r="J33" s="251"/>
-      <c r="K33" s="299"/>
+      <c r="K33" s="270"/>
       <c r="L33" s="235"/>
       <c r="M33" s="136"/>
       <c r="N33" s="12"/>
@@ -6249,8 +6284,8 @@
       <c r="W33" s="90"/>
       <c r="X33" s="21"/>
     </row>
-    <row r="34" spans="2:28">
-      <c r="B34" s="313">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B34" s="281">
         <v>19</v>
       </c>
       <c r="C34" s="20" t="s">
@@ -6259,17 +6294,17 @@
       <c r="D34" s="251" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="275" t="s">
+      <c r="E34" s="330" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="275"/>
+      <c r="F34" s="330"/>
       <c r="G34" s="251"/>
       <c r="H34" s="251"/>
       <c r="I34" s="243" t="s">
         <v>562</v>
       </c>
       <c r="J34" s="251"/>
-      <c r="K34" s="299"/>
+      <c r="K34" s="270"/>
       <c r="L34" s="235"/>
       <c r="M34" s="136"/>
       <c r="N34" s="12"/>
@@ -6284,8 +6319,8 @@
       <c r="W34" s="90"/>
       <c r="X34" s="21"/>
     </row>
-    <row r="35" spans="2:28" ht="33">
-      <c r="B35" s="309">
+    <row r="35" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B35" s="277">
         <v>20</v>
       </c>
       <c r="C35" s="96" t="s">
@@ -6304,7 +6339,7 @@
       <c r="H35" s="244"/>
       <c r="I35" s="244"/>
       <c r="J35" s="244"/>
-      <c r="K35" s="300"/>
+      <c r="K35" s="271"/>
       <c r="L35" s="231" t="s">
         <v>409</v>
       </c>
@@ -6339,8 +6374,8 @@
       </c>
       <c r="X35" s="19"/>
     </row>
-    <row r="36" spans="2:28">
-      <c r="B36" s="309">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B36" s="277">
         <v>21</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -6359,7 +6394,7 @@
       <c r="H36" s="244"/>
       <c r="I36" s="244"/>
       <c r="J36" s="244"/>
-      <c r="K36" s="300"/>
+      <c r="K36" s="271"/>
       <c r="L36" s="231" t="s">
         <v>409</v>
       </c>
@@ -6394,8 +6429,8 @@
       </c>
       <c r="X36" s="19"/>
     </row>
-    <row r="37" spans="2:28" ht="49.5">
-      <c r="B37" s="314">
+    <row r="37" spans="2:28" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B37" s="282">
         <v>22</v>
       </c>
       <c r="C37" s="96" t="s">
@@ -6410,10 +6445,10 @@
       <c r="F37" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="296" t="s">
+      <c r="G37" s="267" t="s">
         <v>598</v>
       </c>
-      <c r="H37" s="296" t="s">
+      <c r="H37" s="267" t="s">
         <v>446</v>
       </c>
       <c r="I37" s="254" t="s">
@@ -6422,7 +6457,7 @@
       <c r="J37" s="254" t="s">
         <v>623</v>
       </c>
-      <c r="K37" s="291" t="s">
+      <c r="K37" s="262" t="s">
         <v>624</v>
       </c>
       <c r="L37" s="231" t="s">
@@ -6464,8 +6499,8 @@
         <v>560</v>
       </c>
     </row>
-    <row r="38" spans="2:28" s="93" customFormat="1" ht="49.5">
-      <c r="B38" s="314">
+    <row r="38" spans="2:28" s="93" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B38" s="282">
         <v>23</v>
       </c>
       <c r="C38" s="96" t="s">
@@ -6484,7 +6519,7 @@
       <c r="H38" s="244"/>
       <c r="I38" s="244"/>
       <c r="J38" s="244"/>
-      <c r="K38" s="300"/>
+      <c r="K38" s="271"/>
       <c r="L38" s="237" t="s">
         <v>432</v>
       </c>
@@ -6513,8 +6548,8 @@
       <c r="W38" s="220"/>
       <c r="X38" s="221"/>
     </row>
-    <row r="39" spans="2:28">
-      <c r="B39" s="309">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B39" s="277">
         <v>24</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -6533,7 +6568,7 @@
       <c r="H39" s="244"/>
       <c r="I39" s="244"/>
       <c r="J39" s="244"/>
-      <c r="K39" s="300"/>
+      <c r="K39" s="271"/>
       <c r="L39" s="237" t="s">
         <v>435</v>
       </c>
@@ -6568,8 +6603,8 @@
       </c>
       <c r="X39" s="19"/>
     </row>
-    <row r="40" spans="2:28">
-      <c r="B40" s="309">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B40" s="277">
         <v>25</v>
       </c>
       <c r="C40" s="96" t="s">
@@ -6588,7 +6623,7 @@
       <c r="H40" s="244"/>
       <c r="I40" s="244"/>
       <c r="J40" s="244"/>
-      <c r="K40" s="300"/>
+      <c r="K40" s="271"/>
       <c r="L40" s="233" t="s">
         <v>437</v>
       </c>
@@ -6625,8 +6660,8 @@
       </c>
       <c r="X40" s="19"/>
     </row>
-    <row r="41" spans="2:28" ht="33">
-      <c r="B41" s="314">
+    <row r="41" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B41" s="282">
         <v>26</v>
       </c>
       <c r="C41" s="96" t="s">
@@ -6641,7 +6676,7 @@
       <c r="F41" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="297" t="s">
+      <c r="G41" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="31" t="s">
@@ -6653,7 +6688,7 @@
       <c r="J41" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="K41" s="305" t="s">
+      <c r="K41" s="320" t="s">
         <v>625</v>
       </c>
       <c r="L41" s="234" t="s">
@@ -6692,8 +6727,8 @@
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="2:28" ht="33">
-      <c r="B42" s="309">
+    <row r="42" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B42" s="277">
         <v>27</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -6708,7 +6743,7 @@
       <c r="F42" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="G42" s="297" t="s">
+      <c r="G42" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="31" t="s">
@@ -6720,7 +6755,7 @@
       <c r="J42" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="K42" s="306"/>
+      <c r="K42" s="321"/>
       <c r="L42" s="232" t="s">
         <v>427</v>
       </c>
@@ -6757,8 +6792,8 @@
       </c>
       <c r="X42" s="30"/>
     </row>
-    <row r="43" spans="2:28">
-      <c r="B43" s="309">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B43" s="277">
         <v>28</v>
       </c>
       <c r="C43" s="97" t="s">
@@ -6773,7 +6808,7 @@
       <c r="F43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="297" t="s">
+      <c r="G43" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="31" t="s">
@@ -6785,7 +6820,7 @@
       <c r="J43" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="K43" s="306"/>
+      <c r="K43" s="321"/>
       <c r="L43" s="231" t="s">
         <v>409</v>
       </c>
@@ -6820,8 +6855,8 @@
       </c>
       <c r="X43" s="30"/>
     </row>
-    <row r="44" spans="2:28">
-      <c r="B44" s="309">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B44" s="277">
         <v>29</v>
       </c>
       <c r="C44" s="97" t="s">
@@ -6836,17 +6871,17 @@
       <c r="F44" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="353" t="s">
+      <c r="G44" s="319" t="s">
         <v>578</v>
       </c>
-      <c r="H44" s="298" t="s">
+      <c r="H44" s="269" t="s">
         <v>587</v>
       </c>
       <c r="I44" s="36" t="s">
         <v>580</v>
       </c>
       <c r="J44" s="36"/>
-      <c r="K44" s="306"/>
+      <c r="K44" s="321"/>
       <c r="L44" s="231" t="s">
         <v>409</v>
       </c>
@@ -6881,8 +6916,8 @@
       </c>
       <c r="X44" s="30"/>
     </row>
-    <row r="45" spans="2:28" ht="33">
-      <c r="B45" s="309">
+    <row r="45" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B45" s="277">
         <v>30</v>
       </c>
       <c r="C45" s="97" t="s">
@@ -6897,17 +6932,17 @@
       <c r="F45" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="353" t="s">
+      <c r="G45" s="319" t="s">
         <v>579</v>
       </c>
-      <c r="H45" s="298" t="s">
+      <c r="H45" s="269" t="s">
         <v>587</v>
       </c>
       <c r="I45" s="36" t="s">
         <v>581</v>
       </c>
       <c r="J45" s="36"/>
-      <c r="K45" s="307"/>
+      <c r="K45" s="322"/>
       <c r="L45" s="231" t="s">
         <v>409</v>
       </c>
@@ -6942,8 +6977,8 @@
       </c>
       <c r="X45" s="30"/>
     </row>
-    <row r="46" spans="2:28">
-      <c r="B46" s="313">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B46" s="281">
         <v>31</v>
       </c>
       <c r="C46" s="251" t="s">
@@ -6952,17 +6987,17 @@
       <c r="D46" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="275" t="s">
+      <c r="E46" s="330" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="275"/>
+      <c r="F46" s="330"/>
       <c r="G46" s="251"/>
       <c r="H46" s="251"/>
       <c r="I46" s="251" t="s">
         <v>566</v>
       </c>
       <c r="J46" s="251"/>
-      <c r="K46" s="299"/>
+      <c r="K46" s="270"/>
       <c r="L46" s="235"/>
       <c r="M46" s="136"/>
       <c r="N46" s="12"/>
@@ -6977,27 +7012,27 @@
       <c r="W46" s="90"/>
       <c r="X46" s="21"/>
     </row>
-    <row r="47" spans="2:28" ht="17.25" thickBot="1">
-      <c r="B47" s="332">
+    <row r="47" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="300">
         <v>32</v>
       </c>
-      <c r="C47" s="333" t="s">
+      <c r="C47" s="301" t="s">
         <v>378</v>
       </c>
-      <c r="D47" s="333" t="s">
+      <c r="D47" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="334" t="s">
+      <c r="E47" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="334"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="335" t="s">
+      <c r="F47" s="332"/>
+      <c r="G47" s="301"/>
+      <c r="H47" s="301"/>
+      <c r="I47" s="302" t="s">
         <v>562</v>
       </c>
-      <c r="J47" s="333"/>
-      <c r="K47" s="336"/>
+      <c r="J47" s="301"/>
+      <c r="K47" s="303"/>
       <c r="L47" s="235"/>
       <c r="M47" s="136"/>
       <c r="N47" s="12"/>
@@ -7012,8 +7047,8 @@
       <c r="W47" s="91"/>
       <c r="X47" s="29"/>
     </row>
-    <row r="48" spans="2:28" ht="49.5">
-      <c r="B48" s="316">
+    <row r="48" spans="2:28" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B48" s="284">
         <v>33</v>
       </c>
       <c r="C48" s="113" t="s">
@@ -7028,19 +7063,19 @@
       <c r="F48" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="338" t="s">
+      <c r="G48" s="305" t="s">
         <v>589</v>
       </c>
-      <c r="H48" s="339" t="s">
+      <c r="H48" s="306" t="s">
         <v>587</v>
       </c>
-      <c r="I48" s="302" t="s">
+      <c r="I48" s="273" t="s">
         <v>591</v>
       </c>
-      <c r="J48" s="302" t="s">
+      <c r="J48" s="273" t="s">
         <v>586</v>
       </c>
-      <c r="K48" s="340" t="s">
+      <c r="K48" s="307" t="s">
         <v>613</v>
       </c>
       <c r="L48" s="234" t="s">
@@ -7081,7 +7116,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="2:24" ht="33">
+    <row r="49" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B49" s="216">
         <v>34</v>
       </c>
@@ -7097,7 +7132,7 @@
       <c r="F49" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="297" t="s">
+      <c r="G49" s="268" t="s">
         <v>590</v>
       </c>
       <c r="H49" s="31" t="s">
@@ -7109,7 +7144,7 @@
       <c r="J49" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="K49" s="341" t="s">
+      <c r="K49" s="308" t="s">
         <v>614</v>
       </c>
       <c r="L49" s="234" t="s">
@@ -7148,7 +7183,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="50" spans="2:24" ht="49.5">
+    <row r="50" spans="2:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B50" s="216">
         <v>35</v>
       </c>
@@ -7164,7 +7199,7 @@
       <c r="F50" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="297" t="s">
+      <c r="G50" s="268" t="s">
         <v>594</v>
       </c>
       <c r="H50" s="31" t="s">
@@ -7174,7 +7209,7 @@
         <v>593</v>
       </c>
       <c r="J50" s="214"/>
-      <c r="K50" s="341" t="s">
+      <c r="K50" s="308" t="s">
         <v>631</v>
       </c>
       <c r="L50" s="234" t="s">
@@ -7201,8 +7236,8 @@
       <c r="W50" s="218"/>
       <c r="X50" s="221"/>
     </row>
-    <row r="51" spans="2:24" ht="33">
-      <c r="B51" s="309">
+    <row r="51" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B51" s="277">
         <v>36</v>
       </c>
       <c r="C51" s="97" t="s">
@@ -7221,7 +7256,7 @@
       <c r="H51" s="245"/>
       <c r="I51" s="245"/>
       <c r="J51" s="245"/>
-      <c r="K51" s="342"/>
+      <c r="K51" s="309"/>
       <c r="L51" s="234" t="s">
         <v>420</v>
       </c>
@@ -7246,8 +7281,8 @@
       <c r="W51" s="220"/>
       <c r="X51" s="221"/>
     </row>
-    <row r="52" spans="2:24">
-      <c r="B52" s="309">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B52" s="277">
         <v>37</v>
       </c>
       <c r="C52" s="97" t="s">
@@ -7265,7 +7300,7 @@
       <c r="G52" s="163" t="s">
         <v>600</v>
       </c>
-      <c r="H52" s="296" t="s">
+      <c r="H52" s="267" t="s">
         <v>446</v>
       </c>
       <c r="I52" s="39" t="s">
@@ -7274,7 +7309,7 @@
       <c r="J52" s="39" t="s">
         <v>615</v>
       </c>
-      <c r="K52" s="343" t="s">
+      <c r="K52" s="310" t="s">
         <v>626</v>
       </c>
       <c r="L52" s="234" t="s">
@@ -7301,8 +7336,8 @@
       <c r="W52" s="220"/>
       <c r="X52" s="221"/>
     </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="309">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B53" s="277">
         <v>38</v>
       </c>
       <c r="C53" s="97" t="s">
@@ -7317,7 +7352,7 @@
       <c r="F53" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="297" t="s">
+      <c r="G53" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="31" t="s">
@@ -7329,7 +7364,7 @@
       <c r="J53" s="214" t="s">
         <v>618</v>
       </c>
-      <c r="K53" s="341" t="s">
+      <c r="K53" s="308" t="s">
         <v>628</v>
       </c>
       <c r="L53" s="233" t="s">
@@ -7360,8 +7395,8 @@
       <c r="W53" s="220"/>
       <c r="X53" s="221"/>
     </row>
-    <row r="54" spans="2:24">
-      <c r="B54" s="309">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B54" s="277">
         <v>39</v>
       </c>
       <c r="C54" s="97" t="s">
@@ -7376,7 +7411,7 @@
       <c r="F54" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="297" t="s">
+      <c r="G54" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="31" t="s">
@@ -7388,7 +7423,7 @@
       <c r="J54" s="214" t="s">
         <v>617</v>
       </c>
-      <c r="K54" s="341" t="s">
+      <c r="K54" s="308" t="s">
         <v>629</v>
       </c>
       <c r="L54" s="231" t="s">
@@ -7415,8 +7450,8 @@
       <c r="W54" s="220"/>
       <c r="X54" s="221"/>
     </row>
-    <row r="55" spans="2:24">
-      <c r="B55" s="309">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B55" s="277">
         <v>40</v>
       </c>
       <c r="C55" s="97" t="s">
@@ -7435,7 +7470,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="344"/>
+      <c r="K55" s="311"/>
       <c r="L55" s="231" t="s">
         <v>409</v>
       </c>
@@ -7460,8 +7495,8 @@
       <c r="W55" s="220"/>
       <c r="X55" s="221"/>
     </row>
-    <row r="56" spans="2:24" ht="33">
-      <c r="B56" s="317">
+    <row r="56" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B56" s="285">
         <v>41</v>
       </c>
       <c r="C56" s="97" t="s">
@@ -7473,7 +7508,7 @@
       <c r="E56" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="F56" s="337" t="s">
+      <c r="F56" s="304" t="s">
         <v>101</v>
       </c>
       <c r="G56" s="248"/>
@@ -7482,7 +7517,7 @@
         <v>570</v>
       </c>
       <c r="J56" s="248"/>
-      <c r="K56" s="345" t="s">
+      <c r="K56" s="312" t="s">
         <v>631</v>
       </c>
       <c r="L56" s="238" t="s">
@@ -7521,8 +7556,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="57" spans="2:24" ht="33">
-      <c r="B57" s="318">
+    <row r="57" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B57" s="286">
         <v>42</v>
       </c>
       <c r="C57" s="97" t="s">
@@ -7537,7 +7572,7 @@
       <c r="F57" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="353" t="s">
+      <c r="G57" s="319" t="s">
         <v>571</v>
       </c>
       <c r="H57" s="33" t="s">
@@ -7549,7 +7584,7 @@
       <c r="J57" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="K57" s="346" t="s">
+      <c r="K57" s="323" t="s">
         <v>630</v>
       </c>
       <c r="L57" s="239" t="s">
@@ -7588,8 +7623,8 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="2:24" ht="33">
-      <c r="B58" s="318">
+    <row r="58" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B58" s="286">
         <v>43</v>
       </c>
       <c r="C58" s="97" t="s">
@@ -7604,7 +7639,7 @@
       <c r="F58" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="353" t="s">
+      <c r="G58" s="319" t="s">
         <v>572</v>
       </c>
       <c r="H58" s="33" t="s">
@@ -7616,7 +7651,7 @@
       <c r="J58" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="K58" s="346"/>
+      <c r="K58" s="323"/>
       <c r="L58" s="239" t="s">
         <v>468</v>
       </c>
@@ -7653,8 +7688,8 @@
         <v>531</v>
       </c>
     </row>
-    <row r="59" spans="2:24" ht="33">
-      <c r="B59" s="317">
+    <row r="59" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B59" s="285">
         <v>44</v>
       </c>
       <c r="C59" s="97" t="s">
@@ -7675,7 +7710,7 @@
         <v>573</v>
       </c>
       <c r="J59" s="84"/>
-      <c r="K59" s="345" t="s">
+      <c r="K59" s="312" t="s">
         <v>631</v>
       </c>
       <c r="L59" s="238" t="s">
@@ -7714,8 +7749,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="60" spans="2:24" ht="33">
-      <c r="B60" s="309">
+    <row r="60" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B60" s="277">
         <v>45</v>
       </c>
       <c r="C60" s="97" t="s">
@@ -7734,7 +7769,7 @@
       <c r="H60" s="244"/>
       <c r="I60" s="244"/>
       <c r="J60" s="244"/>
-      <c r="K60" s="300"/>
+      <c r="K60" s="271"/>
       <c r="L60" s="234" t="s">
         <v>420</v>
       </c>
@@ -7769,8 +7804,8 @@
       </c>
       <c r="X60" s="19"/>
     </row>
-    <row r="61" spans="2:24">
-      <c r="B61" s="312">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B61" s="280">
         <v>46</v>
       </c>
       <c r="C61" s="97" t="s">
@@ -7791,7 +7826,7 @@
         <v>574</v>
       </c>
       <c r="J61" s="39"/>
-      <c r="K61" s="347"/>
+      <c r="K61" s="313"/>
       <c r="L61" s="240" t="s">
         <v>473</v>
       </c>
@@ -7826,8 +7861,8 @@
       </c>
       <c r="X61" s="38"/>
     </row>
-    <row r="62" spans="2:24">
-      <c r="B62" s="313">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B62" s="281">
         <v>47</v>
       </c>
       <c r="C62" s="251" t="s">
@@ -7836,17 +7871,17 @@
       <c r="D62" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="275" t="s">
+      <c r="E62" s="330" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="275"/>
+      <c r="F62" s="330"/>
       <c r="G62" s="251"/>
       <c r="H62" s="251"/>
       <c r="I62" s="251" t="s">
         <v>566</v>
       </c>
       <c r="J62" s="251"/>
-      <c r="K62" s="299"/>
+      <c r="K62" s="270"/>
       <c r="L62" s="235"/>
       <c r="M62" s="136"/>
       <c r="N62" s="12"/>
@@ -7861,27 +7896,27 @@
       <c r="W62" s="90"/>
       <c r="X62" s="21"/>
     </row>
-    <row r="63" spans="2:24" ht="17.25" thickBot="1">
-      <c r="B63" s="332">
+    <row r="63" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="300">
         <v>48</v>
       </c>
-      <c r="C63" s="333" t="s">
+      <c r="C63" s="301" t="s">
         <v>378</v>
       </c>
-      <c r="D63" s="333" t="s">
+      <c r="D63" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="334" t="s">
+      <c r="E63" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="334"/>
-      <c r="G63" s="333"/>
-      <c r="H63" s="333"/>
-      <c r="I63" s="335" t="s">
+      <c r="F63" s="332"/>
+      <c r="G63" s="301"/>
+      <c r="H63" s="301"/>
+      <c r="I63" s="302" t="s">
         <v>562</v>
       </c>
-      <c r="J63" s="333"/>
-      <c r="K63" s="336"/>
+      <c r="J63" s="301"/>
+      <c r="K63" s="303"/>
       <c r="L63" s="235"/>
       <c r="M63" s="136"/>
       <c r="N63" s="12"/>
@@ -7896,29 +7931,29 @@
       <c r="W63" s="91"/>
       <c r="X63" s="29"/>
     </row>
-    <row r="64" spans="2:24">
-      <c r="B64" s="319">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B64" s="287">
         <v>49</v>
       </c>
       <c r="C64" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="D64" s="303" t="s">
+      <c r="D64" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="303" t="s">
+      <c r="E64" s="274" t="s">
         <v>165</v>
       </c>
-      <c r="F64" s="304" t="s">
+      <c r="F64" s="275" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="304"/>
-      <c r="H64" s="304"/>
-      <c r="I64" s="304" t="s">
+      <c r="G64" s="275"/>
+      <c r="H64" s="275"/>
+      <c r="I64" s="275" t="s">
         <v>575</v>
       </c>
-      <c r="J64" s="304"/>
-      <c r="K64" s="349"/>
+      <c r="J64" s="275"/>
+      <c r="K64" s="315"/>
       <c r="L64" s="240" t="s">
         <v>475</v>
       </c>
@@ -7953,8 +7988,8 @@
       </c>
       <c r="X64" s="112"/>
     </row>
-    <row r="65" spans="2:24" ht="33">
-      <c r="B65" s="309">
+    <row r="65" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B65" s="277">
         <v>50</v>
       </c>
       <c r="C65" s="97" t="s">
@@ -7973,7 +8008,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="344"/>
+      <c r="K65" s="311"/>
       <c r="L65" s="232" t="s">
         <v>427</v>
       </c>
@@ -8012,8 +8047,8 @@
       </c>
       <c r="X65" s="19"/>
     </row>
-    <row r="66" spans="2:24">
-      <c r="B66" s="309">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B66" s="277">
         <v>51</v>
       </c>
       <c r="C66" s="97" t="s">
@@ -8032,7 +8067,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="344"/>
+      <c r="K66" s="311"/>
       <c r="L66" s="231" t="s">
         <v>409</v>
       </c>
@@ -8067,8 +8102,8 @@
       </c>
       <c r="X66" s="19"/>
     </row>
-    <row r="67" spans="2:24">
-      <c r="B67" s="309">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B67" s="277">
         <v>52</v>
       </c>
       <c r="C67" s="97" t="s">
@@ -8087,7 +8122,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="344"/>
+      <c r="K67" s="311"/>
       <c r="L67" s="231" t="s">
         <v>409</v>
       </c>
@@ -8122,8 +8157,8 @@
       </c>
       <c r="X67" s="19"/>
     </row>
-    <row r="68" spans="2:24">
-      <c r="B68" s="309">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B68" s="277">
         <v>53</v>
       </c>
       <c r="C68" s="97" t="s">
@@ -8142,7 +8177,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="344"/>
+      <c r="K68" s="311"/>
       <c r="L68" s="231" t="s">
         <v>409</v>
       </c>
@@ -8177,8 +8212,8 @@
       </c>
       <c r="X68" s="19"/>
     </row>
-    <row r="69" spans="2:24">
-      <c r="B69" s="309">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B69" s="277">
         <v>54</v>
       </c>
       <c r="C69" s="97" t="s">
@@ -8193,7 +8228,7 @@
       <c r="F69" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="297" t="s">
+      <c r="G69" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H69" s="31" t="s">
@@ -8205,7 +8240,7 @@
       <c r="J69" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="K69" s="341" t="s">
+      <c r="K69" s="308" t="s">
         <v>633</v>
       </c>
       <c r="L69" s="231" t="s">
@@ -8242,8 +8277,8 @@
       </c>
       <c r="X69" s="19"/>
     </row>
-    <row r="70" spans="2:24" s="93" customFormat="1">
-      <c r="B70" s="309">
+    <row r="70" spans="2:24" s="93" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="277">
         <v>55</v>
       </c>
       <c r="C70" s="97" t="s">
@@ -8258,7 +8293,7 @@
       <c r="F70" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="297" t="s">
+      <c r="G70" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H70" s="31" t="s">
@@ -8270,7 +8305,7 @@
       <c r="J70" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="K70" s="341" t="s">
+      <c r="K70" s="308" t="s">
         <v>634</v>
       </c>
       <c r="L70" s="231" t="s">
@@ -8307,8 +8342,8 @@
       </c>
       <c r="X70" s="19"/>
     </row>
-    <row r="71" spans="2:24" ht="33">
-      <c r="B71" s="309">
+    <row r="71" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B71" s="277">
         <v>56</v>
       </c>
       <c r="C71" s="97" t="s">
@@ -8323,7 +8358,7 @@
       <c r="F71" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="297" t="s">
+      <c r="G71" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H71" s="31" t="s">
@@ -8335,7 +8370,7 @@
       <c r="J71" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="K71" s="341" t="s">
+      <c r="K71" s="308" t="s">
         <v>635</v>
       </c>
       <c r="L71" s="241" t="s">
@@ -8374,8 +8409,8 @@
       </c>
       <c r="X71" s="19"/>
     </row>
-    <row r="72" spans="2:24" ht="33">
-      <c r="B72" s="309">
+    <row r="72" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B72" s="277">
         <v>57</v>
       </c>
       <c r="C72" s="97" t="s">
@@ -8390,7 +8425,7 @@
       <c r="F72" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="G72" s="297" t="s">
+      <c r="G72" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H72" s="31" t="s">
@@ -8402,7 +8437,7 @@
       <c r="J72" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="K72" s="350" t="s">
+      <c r="K72" s="316" t="s">
         <v>638</v>
       </c>
       <c r="L72" s="231" t="s">
@@ -8439,7 +8474,7 @@
       </c>
       <c r="X72" s="19"/>
     </row>
-    <row r="73" spans="2:24" ht="33">
+    <row r="73" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B73" s="216">
         <v>58</v>
       </c>
@@ -8455,7 +8490,7 @@
       <c r="F73" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="297" t="s">
+      <c r="G73" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H73" s="31" t="s">
@@ -8467,7 +8502,7 @@
       <c r="J73" s="214" t="s">
         <v>597</v>
       </c>
-      <c r="K73" s="341" t="s">
+      <c r="K73" s="308" t="s">
         <v>639</v>
       </c>
       <c r="L73" s="241" t="s">
@@ -8504,7 +8539,7 @@
       </c>
       <c r="X73" s="202"/>
     </row>
-    <row r="74" spans="2:24" ht="33.75" thickBot="1">
+    <row r="74" spans="2:24" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B74" s="216">
         <v>59</v>
       </c>
@@ -8520,17 +8555,17 @@
       <c r="F74" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G74" s="348" t="s">
+      <c r="G74" s="314" t="s">
         <v>640</v>
       </c>
-      <c r="H74" s="298" t="s">
+      <c r="H74" s="269" t="s">
         <v>388</v>
       </c>
       <c r="I74" s="36" t="s">
         <v>640</v>
       </c>
       <c r="J74" s="36"/>
-      <c r="K74" s="351" t="s">
+      <c r="K74" s="317" t="s">
         <v>643</v>
       </c>
       <c r="L74" s="231" t="s">
@@ -8565,8 +8600,8 @@
       </c>
       <c r="X74" s="203"/>
     </row>
-    <row r="75" spans="2:24">
-      <c r="B75" s="313">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B75" s="281">
         <v>60</v>
       </c>
       <c r="C75" s="251" t="s">
@@ -8575,17 +8610,17 @@
       <c r="D75" s="251" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="275" t="s">
+      <c r="E75" s="330" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="275"/>
-      <c r="G75" s="352"/>
+      <c r="F75" s="330"/>
+      <c r="G75" s="318"/>
       <c r="H75" s="251"/>
       <c r="I75" s="251" t="s">
         <v>566</v>
       </c>
       <c r="J75" s="251"/>
-      <c r="K75" s="299"/>
+      <c r="K75" s="270"/>
       <c r="L75" s="235" t="s">
         <v>487</v>
       </c>
@@ -8608,7 +8643,7 @@
       <c r="W75" s="77"/>
       <c r="X75" s="21"/>
     </row>
-    <row r="76" spans="2:24">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B76" s="216">
         <v>61</v>
       </c>
@@ -8624,17 +8659,17 @@
       <c r="F76" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="348" t="s">
+      <c r="G76" s="314" t="s">
         <v>642</v>
       </c>
-      <c r="H76" s="298" t="s">
+      <c r="H76" s="269" t="s">
         <v>388</v>
       </c>
       <c r="I76" s="36" t="s">
         <v>641</v>
       </c>
       <c r="J76" s="36"/>
-      <c r="K76" s="351" t="s">
+      <c r="K76" s="317" t="s">
         <v>643</v>
       </c>
       <c r="L76" s="234" t="s">
@@ -8677,7 +8712,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="77" spans="2:24" ht="49.5">
+    <row r="77" spans="2:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B77" s="216">
         <v>62</v>
       </c>
@@ -8693,7 +8728,7 @@
       <c r="F77" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G77" s="297" t="s">
+      <c r="G77" s="268" t="s">
         <v>17</v>
       </c>
       <c r="H77" s="31" t="s">
@@ -8705,7 +8740,7 @@
       <c r="J77" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="K77" s="341" t="s">
+      <c r="K77" s="308" t="s">
         <v>644</v>
       </c>
       <c r="L77" s="241" t="s">
@@ -8746,8 +8781,8 @@
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="2:24">
-      <c r="B78" s="313">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B78" s="281">
         <v>63</v>
       </c>
       <c r="C78" s="251" t="s">
@@ -8756,17 +8791,17 @@
       <c r="D78" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="275" t="s">
+      <c r="E78" s="330" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="275"/>
+      <c r="F78" s="330"/>
       <c r="G78" s="251"/>
       <c r="H78" s="251"/>
       <c r="I78" s="251" t="s">
         <v>566</v>
       </c>
       <c r="J78" s="251"/>
-      <c r="K78" s="299"/>
+      <c r="K78" s="270"/>
       <c r="L78" s="235"/>
       <c r="M78" s="136"/>
       <c r="N78" s="12"/>
@@ -8781,8 +8816,8 @@
       <c r="W78" s="77"/>
       <c r="X78" s="21"/>
     </row>
-    <row r="79" spans="2:24" ht="17.25" thickBot="1">
-      <c r="B79" s="315">
+    <row r="79" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="283">
         <v>64</v>
       </c>
       <c r="C79" s="252" t="s">
@@ -8791,17 +8826,17 @@
       <c r="D79" s="252" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="276" t="s">
+      <c r="E79" s="331" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="276"/>
+      <c r="F79" s="331"/>
       <c r="G79" s="252"/>
       <c r="H79" s="252"/>
       <c r="I79" s="247" t="s">
         <v>562</v>
       </c>
       <c r="J79" s="252"/>
-      <c r="K79" s="301"/>
+      <c r="K79" s="272"/>
       <c r="L79" s="242"/>
       <c r="M79" s="174"/>
       <c r="N79" s="13"/>
@@ -8816,7 +8851,7 @@
       <c r="W79" s="78"/>
       <c r="X79" s="29"/>
     </row>
-    <row r="83" spans="5:16">
+    <row r="83" spans="5:16" x14ac:dyDescent="0.4">
       <c r="L83" s="130" t="s">
         <v>414</v>
       </c>
@@ -8833,7 +8868,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="5:16">
+    <row r="84" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8856,7 +8891,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="5:16">
+    <row r="85" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8879,7 +8914,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="5:16">
+    <row r="86" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -8902,7 +8937,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="87" spans="5:16">
+    <row r="87" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8925,7 +8960,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="5:16">
+    <row r="88" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8948,7 +8983,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="5:16">
+    <row r="89" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8956,7 +8991,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="5:16">
+    <row r="90" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8964,7 +8999,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="5:16">
+    <row r="91" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -8972,7 +9007,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="5:16">
+    <row r="92" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -8980,7 +9015,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="5:16">
+    <row r="93" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -8988,7 +9023,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="5:16">
+    <row r="94" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -8996,7 +9031,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="5:16">
+    <row r="95" spans="5:16" x14ac:dyDescent="0.4">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -9005,13 +9040,19 @@
       <c r="J95" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B15:X79"/>
+  <autoFilter ref="B15:X79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="28">
-    <mergeCell ref="K41:K45"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E75:F75"/>
@@ -9020,21 +9061,15 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E46:F46"/>
-    <mergeCell ref="S14:T14"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K41:K45"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S14:T14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9044,50 +9079,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="6.125" customWidth="1"/>
-    <col min="11" max="11" width="90.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="6.09765625" customWidth="1"/>
+    <col min="11" max="11" width="90.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="51" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="17.25" thickBot="1">
+    <row r="6" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="51" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D7" s="42"/>
       <c r="E7" s="49" t="s">
         <v>210</v>
@@ -9111,7 +9146,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D8" s="55" t="s">
         <v>184</v>
       </c>
@@ -9137,7 +9172,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D9" s="55" t="s">
         <v>185</v>
       </c>
@@ -9159,7 +9194,7 @@
       <c r="J9" s="45"/>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D10" s="55" t="s">
         <v>187</v>
       </c>
@@ -9190,7 +9225,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D11" s="55" t="s">
         <v>186</v>
       </c>
@@ -9212,7 +9247,7 @@
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D12" s="55" t="s">
         <v>188</v>
       </c>
@@ -9243,7 +9278,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D13" s="55" t="s">
         <v>189</v>
       </c>
@@ -9265,7 +9300,7 @@
       <c r="J13" s="45"/>
       <c r="K13" s="46"/>
     </row>
-    <row r="14" spans="2:11" ht="17.25" thickBot="1">
+    <row r="14" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="56" t="s">
         <v>190</v>
       </c>
@@ -9294,17 +9329,17 @@
       </c>
       <c r="K14" s="48"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C16" s="51" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="17.25" thickBot="1">
+    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="51" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D18" s="53" t="s">
         <v>183</v>
       </c>
@@ -9326,7 +9361,7 @@
       <c r="J18" s="43"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D19" s="54" t="s">
         <v>191</v>
       </c>
@@ -9357,7 +9392,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D20" s="55" t="s">
         <v>192</v>
       </c>
@@ -9381,7 +9416,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="17.25" thickBot="1">
+    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D21" s="56" t="s">
         <v>230</v>
       </c>
@@ -9415,23 +9450,23 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23" s="51" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24" s="51"/>
       <c r="C24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="17.25" thickBot="1">
+    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="51" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D26" s="53" t="s">
         <v>195</v>
       </c>
@@ -9445,7 +9480,7 @@
         <v>8000000</v>
       </c>
       <c r="H26" s="43">
-        <v>8000000</v>
+        <v>16000000</v>
       </c>
       <c r="I26" s="43">
         <v>1000000</v>
@@ -9457,7 +9492,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="17.25" thickBot="1">
+    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D27" s="57" t="s">
         <v>197</v>
       </c>
@@ -9475,7 +9510,7 @@
       </c>
       <c r="H27" s="47">
         <f>(H21/H26)-1</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I27" s="47">
         <f>(I21/I26)-1</f>
@@ -9486,16 +9521,16 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D28" s="41"/>
     </row>
-    <row r="29" spans="2:12" ht="17.25" thickBot="1">
+    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C29" s="51" t="s">
         <v>218</v>
       </c>
       <c r="D29" s="41"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D30" s="53" t="s">
         <v>200</v>
       </c>
@@ -9509,7 +9544,7 @@
         <v>80000</v>
       </c>
       <c r="H30" s="43">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I30" s="43">
         <v>80000</v>
@@ -9519,7 +9554,7 @@
       </c>
       <c r="K30" s="44"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D31" s="54" t="s">
         <v>220</v>
       </c>
@@ -9537,7 +9572,7 @@
       </c>
       <c r="H31" s="45">
         <f>INT(H26/H30-1)</f>
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="I31" s="45">
         <f>INT(I26/I30-1)</f>
@@ -9548,7 +9583,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D32" s="54" t="s">
         <v>221</v>
       </c>
@@ -9566,7 +9601,7 @@
       </c>
       <c r="H32" s="58">
         <f>H26/(65535+1)</f>
-        <v>122.0703125</v>
+        <v>244.140625</v>
       </c>
       <c r="I32" s="58">
         <f>I26/(65535+1)</f>
@@ -9579,7 +9614,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="4:11">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D33" s="54" t="s">
         <v>223</v>
       </c>
@@ -9597,7 +9632,7 @@
       </c>
       <c r="H33" s="58">
         <f>H26/(0+1)</f>
-        <v>8000000</v>
+        <v>16000000</v>
       </c>
       <c r="I33" s="58">
         <f>I26/(0+1)</f>
@@ -9610,7 +9645,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="4:11">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D34" s="54" t="s">
         <v>201</v>
       </c>
@@ -9624,7 +9659,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="45">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I34" s="45">
         <v>50</v>
@@ -9634,7 +9669,7 @@
       </c>
       <c r="K34" s="46"/>
     </row>
-    <row r="35" spans="4:11" ht="17.25" thickBot="1">
+    <row r="35" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D35" s="57" t="s">
         <v>81</v>
       </c>
@@ -9652,7 +9687,7 @@
       </c>
       <c r="H35" s="47">
         <f>INT(H31*H34/100)</f>
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="I35" s="47">
         <f>INT(I31*I34/100)</f>
@@ -9663,19 +9698,19 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="4:11">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.4">
       <c r="F36">
         <f>1/F30*1000</f>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:11">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.4">
       <c r="F39">
         <f>1/F8*1000</f>
         <v>1.25E-4</v>
       </c>
     </row>
-    <row r="41" spans="4:11">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.4">
       <c r="F41">
         <f>F36/F39</f>
         <v>100</v>
@@ -9689,34 +9724,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="67"/>
-    <col min="3" max="3" width="12.75" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="66" customWidth="1"/>
     <col min="8" max="8" width="9" style="67"/>
-    <col min="9" max="9" width="11.875" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.59765625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1">
+    <row r="2" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="67" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="67" customFormat="1">
+    <row r="3" spans="2:13" s="67" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="85" t="s">
         <v>317</v>
       </c>
@@ -9754,7 +9789,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" s="75">
         <v>1</v>
       </c>
@@ -9786,7 +9821,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="75">
         <v>3</v>
       </c>
@@ -9822,7 +9857,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="75">
         <v>5</v>
       </c>
@@ -9856,7 +9891,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="75">
         <v>7</v>
       </c>
@@ -9890,7 +9925,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="75">
         <v>9</v>
       </c>
@@ -9924,7 +9959,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="75">
         <v>11</v>
       </c>
@@ -9954,7 +9989,7 @@
       </c>
       <c r="M9" s="69"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="75">
         <v>13</v>
       </c>
@@ -9984,7 +10019,7 @@
       </c>
       <c r="M10" s="69"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="75">
         <v>15</v>
       </c>
@@ -10014,7 +10049,7 @@
       </c>
       <c r="M11" s="69"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="75">
         <v>17</v>
       </c>
@@ -10044,7 +10079,7 @@
       </c>
       <c r="M12" s="69"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="75">
         <v>19</v>
       </c>
@@ -10074,7 +10109,7 @@
       </c>
       <c r="M13" s="72"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="75">
         <v>21</v>
       </c>
@@ -10106,7 +10141,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="75">
         <v>23</v>
       </c>
@@ -10136,7 +10171,7 @@
       </c>
       <c r="M15" s="72"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="75">
         <v>25</v>
       </c>
@@ -10168,7 +10203,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="75">
         <v>27</v>
       </c>
@@ -10200,7 +10235,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="75">
         <v>29</v>
       </c>
@@ -10234,7 +10269,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="75">
         <v>31</v>
       </c>
@@ -10268,7 +10303,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="75">
         <v>33</v>
       </c>
@@ -10298,7 +10333,7 @@
       </c>
       <c r="M20" s="69"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="75">
         <v>35</v>
       </c>
@@ -10328,7 +10363,7 @@
       </c>
       <c r="M21" s="69"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="75">
         <v>37</v>
       </c>
@@ -10360,7 +10395,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="17.25" thickBot="1">
+    <row r="23" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="76">
         <v>39</v>
       </c>
@@ -10390,12 +10425,12 @@
       </c>
       <c r="M23" s="71"/>
     </row>
-    <row r="25" spans="2:13" ht="17.25" thickBot="1">
+    <row r="25" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="67" customFormat="1">
+    <row r="26" spans="2:13" s="67" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="85" t="s">
         <v>317</v>
       </c>
@@ -10433,7 +10468,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="75">
         <v>1</v>
       </c>
@@ -10467,7 +10502,7 @@
       </c>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B28" s="75">
         <v>3</v>
       </c>
@@ -10499,7 +10534,7 @@
       </c>
       <c r="M28" s="69"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B29" s="75">
         <v>5</v>
       </c>
@@ -10533,7 +10568,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B30" s="75">
         <v>7</v>
       </c>
@@ -10563,7 +10598,7 @@
       </c>
       <c r="M30" s="69"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B31" s="75">
         <v>9</v>
       </c>
@@ -10595,7 +10630,7 @@
       </c>
       <c r="M31" s="69"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B32" s="75">
         <v>11</v>
       </c>
@@ -10627,7 +10662,7 @@
       </c>
       <c r="M32" s="69"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="75">
         <v>13</v>
       </c>
@@ -10663,7 +10698,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="75">
         <v>15</v>
       </c>
@@ -10697,7 +10732,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="75">
         <v>17</v>
       </c>
@@ -10729,7 +10764,7 @@
       </c>
       <c r="M35" s="69"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B36" s="75">
         <v>19</v>
       </c>
@@ -10761,7 +10796,7 @@
       </c>
       <c r="M36" s="69"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B37" s="75">
         <v>21</v>
       </c>
@@ -10797,7 +10832,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B38" s="75">
         <v>23</v>
       </c>
@@ -10833,7 +10868,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B39" s="75">
         <v>25</v>
       </c>
@@ -10863,7 +10898,7 @@
       </c>
       <c r="M39" s="69"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B40" s="75">
         <v>27</v>
       </c>
@@ -10897,7 +10932,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B41" s="75">
         <v>29</v>
       </c>
@@ -10931,7 +10966,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="75">
         <v>31</v>
       </c>
@@ -10965,7 +11000,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B43" s="75">
         <v>33</v>
       </c>
@@ -10999,7 +11034,7 @@
       </c>
       <c r="M43" s="69"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B44" s="75">
         <v>35</v>
       </c>
@@ -11031,7 +11066,7 @@
       </c>
       <c r="M44" s="69"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B45" s="75">
         <v>37</v>
       </c>
@@ -11061,7 +11096,7 @@
       </c>
       <c r="M45" s="69"/>
     </row>
-    <row r="46" spans="2:13" ht="17.25" thickBot="1">
+    <row r="46" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="76">
         <v>39</v>
       </c>
@@ -11099,52 +11134,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="3.625" customWidth="1"/>
-    <col min="9" max="12" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="6" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="3.59765625" customWidth="1"/>
+    <col min="9" max="12" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.25" thickBot="1">
+    <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="280" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="350" t="s">
         <v>317</v>
       </c>
-      <c r="C3" s="282" t="s">
+      <c r="C3" s="352" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="283"/>
-      <c r="E3" s="278" t="s">
+      <c r="D3" s="353"/>
+      <c r="E3" s="348" t="s">
         <v>515</v>
       </c>
-      <c r="F3" s="279"/>
-      <c r="H3" s="280" t="s">
+      <c r="F3" s="349"/>
+      <c r="H3" s="350" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="282" t="s">
+      <c r="I3" s="352" t="s">
         <v>514</v>
       </c>
-      <c r="J3" s="283"/>
-      <c r="K3" s="278" t="s">
+      <c r="J3" s="353"/>
+      <c r="K3" s="348" t="s">
         <v>515</v>
       </c>
-      <c r="L3" s="279"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1">
-      <c r="B4" s="281"/>
+      <c r="L3" s="349"/>
+    </row>
+    <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="351"/>
       <c r="C4" s="188" t="s">
         <v>513</v>
       </c>
@@ -11157,7 +11192,7 @@
       <c r="F4" s="195" t="s">
         <v>516</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="351"/>
       <c r="I4" s="188" t="s">
         <v>301</v>
       </c>
@@ -11171,7 +11206,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="181">
         <v>1</v>
       </c>
@@ -11203,7 +11238,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="182">
         <v>3</v>
       </c>
@@ -11235,7 +11270,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="182">
         <v>5</v>
       </c>
@@ -11267,7 +11302,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="182">
         <v>7</v>
       </c>
@@ -11299,7 +11334,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="182">
         <v>9</v>
       </c>
@@ -11331,7 +11366,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="182">
         <v>11</v>
       </c>
@@ -11355,7 +11390,7 @@
       <c r="K10" s="186"/>
       <c r="L10" s="179"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="182">
         <v>13</v>
       </c>
@@ -11379,7 +11414,7 @@
       <c r="K11" s="186"/>
       <c r="L11" s="179"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="182">
         <v>15</v>
       </c>
@@ -11403,7 +11438,7 @@
       <c r="K12" s="186"/>
       <c r="L12" s="179"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="182">
         <v>17</v>
       </c>
@@ -11427,7 +11462,7 @@
       <c r="K13" s="186"/>
       <c r="L13" s="179"/>
     </row>
-    <row r="14" spans="2:12" ht="17.25" thickBot="1">
+    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="183">
         <v>19</v>
       </c>
@@ -11451,55 +11486,55 @@
       <c r="K14" s="187"/>
       <c r="L14" s="180"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="176" t="s">
         <v>522</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B16" s="176" t="s">
         <v>504</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="176" t="s">
         <v>505</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="176" t="s">
         <v>521</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="E27" s="67"/>

--- a/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20191107.xlsx
+++ b/1_Schematic/Build V1.0/RF-GEN-CPU_PinMap_20191107.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB57B92-0601-45D5-8763-CACA4DB45F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pin-map" sheetId="6" r:id="rId1"/>
@@ -16,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pin-map'!$B$15:$X$79</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2584,11 +2583,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4127,6 +4126,60 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4155,60 +4208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4232,7 +4231,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 10" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4272,7 +4271,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4338,7 +4337,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4399,7 +4398,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4460,7 +4459,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4549,7 +4548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4582,26 +4581,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4634,23 +4616,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4826,45 +4791,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.8984375" style="5" customWidth="1"/>
-    <col min="6" max="9" width="18.09765625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="26.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
+    <col min="6" max="9" width="18.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.75" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.5" style="176" customWidth="1"/>
-    <col min="12" max="12" width="25.19921875" style="5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.59765625" style="5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24.09765625" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.59765625" style="5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="44.59765625" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="25.19921875" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="14.19921875" style="5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="23.09765625" style="5" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="24.09765625" style="5" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="11.59765625" style="5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="27.19921875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.25" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.25" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.125" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="44.625" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="25.25" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="14.25" style="5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.125" style="5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="24.125" style="5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="27.25" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:24">
       <c r="B1" s="51" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:24" ht="17.25" thickBot="1">
       <c r="B2" s="15" t="s">
         <v>523</v>
       </c>
@@ -4886,11 +4851,11 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B3" s="335" t="s">
+    <row r="3" spans="2:24">
+      <c r="B3" s="329" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336"/>
+      <c r="C3" s="330"/>
       <c r="D3" s="2">
         <v>128</v>
       </c>
@@ -4922,11 +4887,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B4" s="337" t="s">
+    <row r="4" spans="2:24">
+      <c r="B4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="338"/>
+      <c r="C4" s="332"/>
       <c r="D4" s="3">
         <v>16</v>
       </c>
@@ -4960,11 +4925,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B5" s="337" t="s">
+    <row r="5" spans="2:24">
+      <c r="B5" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="338"/>
+      <c r="C5" s="332"/>
       <c r="D5" s="3">
         <v>48</v>
       </c>
@@ -5000,11 +4965,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B6" s="337" t="s">
+    <row r="6" spans="2:24">
+      <c r="B6" s="331" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="338"/>
+      <c r="C6" s="332"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -5032,11 +4997,11 @@
       </c>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="339" t="s">
+    <row r="7" spans="2:24" ht="17.25" thickBot="1">
+      <c r="B7" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="340"/>
+      <c r="C7" s="334"/>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
@@ -5068,7 +5033,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:24">
       <c r="E8" s="72" t="s">
         <v>371</v>
       </c>
@@ -5090,7 +5055,7 @@
       </c>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:24">
       <c r="E9" s="72" t="s">
         <v>372</v>
       </c>
@@ -5118,7 +5083,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:24">
       <c r="E10" s="72" t="s">
         <v>373</v>
       </c>
@@ -5145,7 +5110,7 @@
       </c>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:24">
       <c r="E11" s="72" t="s">
         <v>374</v>
       </c>
@@ -5174,7 +5139,7 @@
       </c>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:24" ht="17.25" thickBot="1">
       <c r="E12" s="73" t="s">
         <v>171</v>
       </c>
@@ -5203,56 +5168,56 @@
       </c>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="345" t="s">
+    <row r="13" spans="2:24" ht="17.25" thickBot="1"/>
+    <row r="14" spans="2:24" ht="16.5" customHeight="1">
+      <c r="B14" s="324" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="333"/>
-      <c r="D14" s="333" t="s">
+      <c r="C14" s="325"/>
+      <c r="D14" s="325" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="333" t="s">
+      <c r="E14" s="325" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="334"/>
-      <c r="G14" s="341" t="s">
+      <c r="F14" s="328"/>
+      <c r="G14" s="320" t="s">
         <v>645</v>
       </c>
-      <c r="H14" s="342"/>
-      <c r="I14" s="342"/>
-      <c r="J14" s="343"/>
+      <c r="H14" s="321"/>
+      <c r="I14" s="321"/>
+      <c r="J14" s="322"/>
       <c r="K14" s="259"/>
-      <c r="L14" s="324" t="s">
+      <c r="L14" s="342" t="s">
         <v>399</v>
       </c>
-      <c r="M14" s="325"/>
-      <c r="N14" s="324" t="s">
+      <c r="M14" s="343"/>
+      <c r="N14" s="342" t="s">
         <v>400</v>
       </c>
-      <c r="O14" s="326"/>
-      <c r="P14" s="326"/>
-      <c r="Q14" s="326"/>
-      <c r="R14" s="327"/>
-      <c r="S14" s="324" t="s">
+      <c r="O14" s="344"/>
+      <c r="P14" s="344"/>
+      <c r="Q14" s="344"/>
+      <c r="R14" s="345"/>
+      <c r="S14" s="342" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="326"/>
-      <c r="U14" s="325" t="s">
+      <c r="T14" s="344"/>
+      <c r="U14" s="343" t="s">
         <v>375</v>
       </c>
-      <c r="V14" s="328"/>
-      <c r="W14" s="328"/>
-      <c r="X14" s="329"/>
-    </row>
-    <row r="15" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V14" s="346"/>
+      <c r="W14" s="346"/>
+      <c r="X14" s="347"/>
+    </row>
+    <row r="15" spans="2:24" ht="17.25" thickBot="1">
       <c r="B15" s="98" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="99" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="346"/>
+      <c r="D15" s="326"/>
       <c r="E15" s="99" t="s">
         <v>162</v>
       </c>
@@ -5312,7 +5277,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:24" s="18" customFormat="1">
       <c r="B16" s="276">
         <v>1</v>
       </c>
@@ -5322,10 +5287,10 @@
       <c r="D16" s="253" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="344" t="s">
+      <c r="E16" s="323" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="344"/>
+      <c r="F16" s="323"/>
       <c r="G16" s="253"/>
       <c r="H16" s="253"/>
       <c r="I16" s="246" t="s">
@@ -5347,7 +5312,7 @@
       <c r="W16" s="28"/>
       <c r="X16" s="40"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:24">
       <c r="B17" s="277">
         <v>2</v>
       </c>
@@ -5402,7 +5367,7 @@
       </c>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24">
       <c r="B18" s="278">
         <v>3</v>
       </c>
@@ -5459,7 +5424,7 @@
       </c>
       <c r="X18" s="80"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24">
       <c r="B19" s="278">
         <v>4</v>
       </c>
@@ -5516,7 +5481,7 @@
       </c>
       <c r="X19" s="80"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24">
       <c r="B20" s="279">
         <v>5</v>
       </c>
@@ -5575,7 +5540,7 @@
       </c>
       <c r="X20" s="80"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24">
       <c r="B21" s="278">
         <v>6</v>
       </c>
@@ -5632,7 +5597,7 @@
       </c>
       <c r="X21" s="80"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24">
       <c r="B22" s="280">
         <v>7</v>
       </c>
@@ -5642,10 +5607,10 @@
       <c r="D22" s="254" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="347" t="s">
+      <c r="E22" s="327" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="347"/>
+      <c r="F22" s="327"/>
       <c r="G22" s="254"/>
       <c r="H22" s="254"/>
       <c r="I22" s="254" t="s">
@@ -5687,7 +5652,7 @@
       </c>
       <c r="X22" s="38"/>
     </row>
-    <row r="23" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" ht="33">
       <c r="B23" s="277">
         <v>8</v>
       </c>
@@ -5754,7 +5719,7 @@
       </c>
       <c r="X23" s="30"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:24">
       <c r="B24" s="216">
         <v>9</v>
       </c>
@@ -5819,7 +5784,7 @@
       </c>
       <c r="X24" s="30"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24">
       <c r="B25" s="216">
         <v>10</v>
       </c>
@@ -5884,7 +5849,7 @@
       </c>
       <c r="X25" s="30"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24">
       <c r="B26" s="216">
         <v>11</v>
       </c>
@@ -5947,7 +5912,7 @@
       </c>
       <c r="X26" s="200"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24">
       <c r="B27" s="281">
         <v>12</v>
       </c>
@@ -5957,10 +5922,10 @@
       <c r="D27" s="251" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="330" t="s">
+      <c r="E27" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="330"/>
+      <c r="F27" s="335"/>
       <c r="G27" s="291"/>
       <c r="H27" s="251"/>
       <c r="I27" s="251" t="s">
@@ -5982,7 +5947,7 @@
       <c r="W27" s="90"/>
       <c r="X27" s="21"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24">
       <c r="B28" s="281">
         <v>13</v>
       </c>
@@ -5992,10 +5957,10 @@
       <c r="D28" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="330" t="s">
+      <c r="E28" s="335" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="330"/>
+      <c r="F28" s="335"/>
       <c r="G28" s="291"/>
       <c r="H28" s="251"/>
       <c r="I28" s="243" t="s">
@@ -6017,7 +5982,7 @@
       <c r="W28" s="90"/>
       <c r="X28" s="21"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24">
       <c r="B29" s="277">
         <v>14</v>
       </c>
@@ -6080,7 +6045,7 @@
       </c>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:24" ht="33">
       <c r="B30" s="216">
         <v>15</v>
       </c>
@@ -6139,7 +6104,7 @@
       <c r="W30" s="61"/>
       <c r="X30" s="200"/>
     </row>
-    <row r="31" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:24" ht="17.25" thickBot="1">
       <c r="B31" s="297">
         <v>16</v>
       </c>
@@ -6194,7 +6159,7 @@
       <c r="W31" s="212"/>
       <c r="X31" s="213"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:24">
       <c r="B32" s="289">
         <v>17</v>
       </c>
@@ -6249,7 +6214,7 @@
       </c>
       <c r="X32" s="108"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:28">
       <c r="B33" s="281">
         <v>18</v>
       </c>
@@ -6259,10 +6224,10 @@
       <c r="D33" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="330" t="s">
+      <c r="E33" s="335" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="330"/>
+      <c r="F33" s="335"/>
       <c r="G33" s="251"/>
       <c r="H33" s="251"/>
       <c r="I33" s="251" t="s">
@@ -6284,7 +6249,7 @@
       <c r="W33" s="90"/>
       <c r="X33" s="21"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:28">
       <c r="B34" s="281">
         <v>19</v>
       </c>
@@ -6294,10 +6259,10 @@
       <c r="D34" s="251" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="330" t="s">
+      <c r="E34" s="335" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="330"/>
+      <c r="F34" s="335"/>
       <c r="G34" s="251"/>
       <c r="H34" s="251"/>
       <c r="I34" s="243" t="s">
@@ -6319,7 +6284,7 @@
       <c r="W34" s="90"/>
       <c r="X34" s="21"/>
     </row>
-    <row r="35" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:28" ht="33">
       <c r="B35" s="277">
         <v>20</v>
       </c>
@@ -6374,7 +6339,7 @@
       </c>
       <c r="X35" s="19"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:28">
       <c r="B36" s="277">
         <v>21</v>
       </c>
@@ -6429,7 +6394,7 @@
       </c>
       <c r="X36" s="19"/>
     </row>
-    <row r="37" spans="2:28" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:28" ht="49.5">
       <c r="B37" s="282">
         <v>22</v>
       </c>
@@ -6499,7 +6464,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="38" spans="2:28" s="93" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:28" s="93" customFormat="1" ht="49.5">
       <c r="B38" s="282">
         <v>23</v>
       </c>
@@ -6548,7 +6513,7 @@
       <c r="W38" s="220"/>
       <c r="X38" s="221"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:28">
       <c r="B39" s="277">
         <v>24</v>
       </c>
@@ -6603,7 +6568,7 @@
       </c>
       <c r="X39" s="19"/>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:28">
       <c r="B40" s="277">
         <v>25</v>
       </c>
@@ -6660,7 +6625,7 @@
       </c>
       <c r="X40" s="19"/>
     </row>
-    <row r="41" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:28" ht="33">
       <c r="B41" s="282">
         <v>26</v>
       </c>
@@ -6688,7 +6653,7 @@
       <c r="J41" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="K41" s="320" t="s">
+      <c r="K41" s="338" t="s">
         <v>625</v>
       </c>
       <c r="L41" s="234" t="s">
@@ -6727,7 +6692,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="42" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:28" ht="33">
       <c r="B42" s="277">
         <v>27</v>
       </c>
@@ -6755,7 +6720,7 @@
       <c r="J42" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="K42" s="321"/>
+      <c r="K42" s="339"/>
       <c r="L42" s="232" t="s">
         <v>427</v>
       </c>
@@ -6792,7 +6757,7 @@
       </c>
       <c r="X42" s="30"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:28">
       <c r="B43" s="277">
         <v>28</v>
       </c>
@@ -6820,7 +6785,7 @@
       <c r="J43" s="214" t="s">
         <v>586</v>
       </c>
-      <c r="K43" s="321"/>
+      <c r="K43" s="339"/>
       <c r="L43" s="231" t="s">
         <v>409</v>
       </c>
@@ -6855,7 +6820,7 @@
       </c>
       <c r="X43" s="30"/>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:28">
       <c r="B44" s="277">
         <v>29</v>
       </c>
@@ -6881,7 +6846,7 @@
         <v>580</v>
       </c>
       <c r="J44" s="36"/>
-      <c r="K44" s="321"/>
+      <c r="K44" s="339"/>
       <c r="L44" s="231" t="s">
         <v>409</v>
       </c>
@@ -6916,7 +6881,7 @@
       </c>
       <c r="X44" s="30"/>
     </row>
-    <row r="45" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:28" ht="33">
       <c r="B45" s="277">
         <v>30</v>
       </c>
@@ -6942,7 +6907,7 @@
         <v>581</v>
       </c>
       <c r="J45" s="36"/>
-      <c r="K45" s="322"/>
+      <c r="K45" s="340"/>
       <c r="L45" s="231" t="s">
         <v>409</v>
       </c>
@@ -6977,7 +6942,7 @@
       </c>
       <c r="X45" s="30"/>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:28">
       <c r="B46" s="281">
         <v>31</v>
       </c>
@@ -6987,10 +6952,10 @@
       <c r="D46" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="E46" s="330" t="s">
+      <c r="E46" s="335" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="330"/>
+      <c r="F46" s="335"/>
       <c r="G46" s="251"/>
       <c r="H46" s="251"/>
       <c r="I46" s="251" t="s">
@@ -7012,7 +6977,7 @@
       <c r="W46" s="90"/>
       <c r="X46" s="21"/>
     </row>
-    <row r="47" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:28" ht="17.25" thickBot="1">
       <c r="B47" s="300">
         <v>32</v>
       </c>
@@ -7022,10 +6987,10 @@
       <c r="D47" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="332" t="s">
+      <c r="E47" s="337" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="332"/>
+      <c r="F47" s="337"/>
       <c r="G47" s="301"/>
       <c r="H47" s="301"/>
       <c r="I47" s="302" t="s">
@@ -7047,7 +7012,7 @@
       <c r="W47" s="91"/>
       <c r="X47" s="29"/>
     </row>
-    <row r="48" spans="2:28" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:28" ht="49.5">
       <c r="B48" s="284">
         <v>33</v>
       </c>
@@ -7116,7 +7081,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:24" ht="33">
       <c r="B49" s="216">
         <v>34</v>
       </c>
@@ -7183,7 +7148,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="50" spans="2:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:24" ht="49.5">
       <c r="B50" s="216">
         <v>35</v>
       </c>
@@ -7236,7 +7201,7 @@
       <c r="W50" s="218"/>
       <c r="X50" s="221"/>
     </row>
-    <row r="51" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:24" ht="33">
       <c r="B51" s="277">
         <v>36</v>
       </c>
@@ -7281,7 +7246,7 @@
       <c r="W51" s="220"/>
       <c r="X51" s="221"/>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:24">
       <c r="B52" s="277">
         <v>37</v>
       </c>
@@ -7336,7 +7301,7 @@
       <c r="W52" s="220"/>
       <c r="X52" s="221"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:24">
       <c r="B53" s="277">
         <v>38</v>
       </c>
@@ -7395,7 +7360,7 @@
       <c r="W53" s="220"/>
       <c r="X53" s="221"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:24">
       <c r="B54" s="277">
         <v>39</v>
       </c>
@@ -7450,7 +7415,7 @@
       <c r="W54" s="220"/>
       <c r="X54" s="221"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:24">
       <c r="B55" s="277">
         <v>40</v>
       </c>
@@ -7495,7 +7460,7 @@
       <c r="W55" s="220"/>
       <c r="X55" s="221"/>
     </row>
-    <row r="56" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:24" ht="33">
       <c r="B56" s="285">
         <v>41</v>
       </c>
@@ -7556,7 +7521,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="57" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:24" ht="33">
       <c r="B57" s="286">
         <v>42</v>
       </c>
@@ -7584,7 +7549,7 @@
       <c r="J57" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="K57" s="323" t="s">
+      <c r="K57" s="341" t="s">
         <v>630</v>
       </c>
       <c r="L57" s="239" t="s">
@@ -7623,7 +7588,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:24" ht="33">
       <c r="B58" s="286">
         <v>43</v>
       </c>
@@ -7651,7 +7616,7 @@
       <c r="J58" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="K58" s="323"/>
+      <c r="K58" s="341"/>
       <c r="L58" s="239" t="s">
         <v>468</v>
       </c>
@@ -7688,7 +7653,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="59" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:24" ht="33">
       <c r="B59" s="285">
         <v>44</v>
       </c>
@@ -7749,7 +7714,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="60" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:24" ht="33">
       <c r="B60" s="277">
         <v>45</v>
       </c>
@@ -7804,7 +7769,7 @@
       </c>
       <c r="X60" s="19"/>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:24">
       <c r="B61" s="280">
         <v>46</v>
       </c>
@@ -7861,7 +7826,7 @@
       </c>
       <c r="X61" s="38"/>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:24">
       <c r="B62" s="281">
         <v>47</v>
       </c>
@@ -7871,10 +7836,10 @@
       <c r="D62" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="330" t="s">
+      <c r="E62" s="335" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="330"/>
+      <c r="F62" s="335"/>
       <c r="G62" s="251"/>
       <c r="H62" s="251"/>
       <c r="I62" s="251" t="s">
@@ -7896,7 +7861,7 @@
       <c r="W62" s="90"/>
       <c r="X62" s="21"/>
     </row>
-    <row r="63" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:24" ht="17.25" thickBot="1">
       <c r="B63" s="300">
         <v>48</v>
       </c>
@@ -7906,10 +7871,10 @@
       <c r="D63" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="332" t="s">
+      <c r="E63" s="337" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="332"/>
+      <c r="F63" s="337"/>
       <c r="G63" s="301"/>
       <c r="H63" s="301"/>
       <c r="I63" s="302" t="s">
@@ -7931,7 +7896,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="29"/>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:24">
       <c r="B64" s="287">
         <v>49</v>
       </c>
@@ -7988,7 +7953,7 @@
       </c>
       <c r="X64" s="112"/>
     </row>
-    <row r="65" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:24" ht="33">
       <c r="B65" s="277">
         <v>50</v>
       </c>
@@ -8047,7 +8012,7 @@
       </c>
       <c r="X65" s="19"/>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:24">
       <c r="B66" s="277">
         <v>51</v>
       </c>
@@ -8102,7 +8067,7 @@
       </c>
       <c r="X66" s="19"/>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:24">
       <c r="B67" s="277">
         <v>52</v>
       </c>
@@ -8157,7 +8122,7 @@
       </c>
       <c r="X67" s="19"/>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:24">
       <c r="B68" s="277">
         <v>53</v>
       </c>
@@ -8212,7 +8177,7 @@
       </c>
       <c r="X68" s="19"/>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:24">
       <c r="B69" s="277">
         <v>54</v>
       </c>
@@ -8277,7 +8242,7 @@
       </c>
       <c r="X69" s="19"/>
     </row>
-    <row r="70" spans="2:24" s="93" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:24" s="93" customFormat="1">
       <c r="B70" s="277">
         <v>55</v>
       </c>
@@ -8342,7 +8307,7 @@
       </c>
       <c r="X70" s="19"/>
     </row>
-    <row r="71" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:24" ht="33">
       <c r="B71" s="277">
         <v>56</v>
       </c>
@@ -8409,7 +8374,7 @@
       </c>
       <c r="X71" s="19"/>
     </row>
-    <row r="72" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:24" ht="33">
       <c r="B72" s="277">
         <v>57</v>
       </c>
@@ -8474,7 +8439,7 @@
       </c>
       <c r="X72" s="19"/>
     </row>
-    <row r="73" spans="2:24" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:24" ht="33">
       <c r="B73" s="216">
         <v>58</v>
       </c>
@@ -8539,7 +8504,7 @@
       </c>
       <c r="X73" s="202"/>
     </row>
-    <row r="74" spans="2:24" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:24" ht="33.75" thickBot="1">
       <c r="B74" s="216">
         <v>59</v>
       </c>
@@ -8600,7 +8565,7 @@
       </c>
       <c r="X74" s="203"/>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:24">
       <c r="B75" s="281">
         <v>60</v>
       </c>
@@ -8610,10 +8575,10 @@
       <c r="D75" s="251" t="s">
         <v>140</v>
       </c>
-      <c r="E75" s="330" t="s">
+      <c r="E75" s="335" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="330"/>
+      <c r="F75" s="335"/>
       <c r="G75" s="318"/>
       <c r="H75" s="251"/>
       <c r="I75" s="251" t="s">
@@ -8643,7 +8608,7 @@
       <c r="W75" s="77"/>
       <c r="X75" s="21"/>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:24">
       <c r="B76" s="216">
         <v>61</v>
       </c>
@@ -8712,7 +8677,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="77" spans="2:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:24" ht="49.5">
       <c r="B77" s="216">
         <v>62</v>
       </c>
@@ -8781,7 +8746,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:24">
       <c r="B78" s="281">
         <v>63</v>
       </c>
@@ -8791,10 +8756,10 @@
       <c r="D78" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="330" t="s">
+      <c r="E78" s="335" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="330"/>
+      <c r="F78" s="335"/>
       <c r="G78" s="251"/>
       <c r="H78" s="251"/>
       <c r="I78" s="251" t="s">
@@ -8816,7 +8781,7 @@
       <c r="W78" s="77"/>
       <c r="X78" s="21"/>
     </row>
-    <row r="79" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:24" ht="17.25" thickBot="1">
       <c r="B79" s="283">
         <v>64</v>
       </c>
@@ -8826,10 +8791,10 @@
       <c r="D79" s="252" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="331" t="s">
+      <c r="E79" s="336" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="331"/>
+      <c r="F79" s="336"/>
       <c r="G79" s="252"/>
       <c r="H79" s="252"/>
       <c r="I79" s="247" t="s">
@@ -8851,7 +8816,7 @@
       <c r="W79" s="78"/>
       <c r="X79" s="29"/>
     </row>
-    <row r="83" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="83" spans="5:16">
       <c r="L83" s="130" t="s">
         <v>414</v>
       </c>
@@ -8868,7 +8833,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="84" spans="5:16">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8891,7 +8856,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="85" spans="5:16">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8914,7 +8879,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="86" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="86" spans="5:16">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -8937,7 +8902,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="87" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="87" spans="5:16">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8960,7 +8925,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="88" spans="5:16">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8983,7 +8948,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="89" spans="5:16">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8991,7 +8956,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="90" spans="5:16">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8999,7 +8964,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="91" spans="5:16">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -9007,7 +8972,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="92" spans="5:16">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -9015,7 +8980,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="93" spans="5:16">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -9023,7 +8988,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="94" spans="5:16">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -9031,7 +8996,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="5:16" x14ac:dyDescent="0.4">
+    <row r="95" spans="5:16">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -9040,19 +9005,14 @@
       <c r="J95" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B15:X79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B15:X79"/>
   <mergeCells count="28">
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="K41:K45"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="S14:T14"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E75:F75"/>
@@ -9064,12 +9024,17 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
-    <mergeCell ref="K41:K45"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9079,50 +9044,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="7.59765625" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.59765625" customWidth="1"/>
-    <col min="10" max="10" width="6.09765625" customWidth="1"/>
-    <col min="11" max="11" width="90.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="6.125" customWidth="1"/>
+    <col min="11" max="11" width="90.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11">
       <c r="B2" s="51" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11">
       <c r="C3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11">
       <c r="C4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11">
       <c r="C5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" ht="17.25" thickBot="1">
       <c r="C6" s="51" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11">
       <c r="D7" s="42"/>
       <c r="E7" s="49" t="s">
         <v>210</v>
@@ -9146,7 +9111,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11">
       <c r="D8" s="55" t="s">
         <v>184</v>
       </c>
@@ -9172,7 +9137,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11">
       <c r="D9" s="55" t="s">
         <v>185</v>
       </c>
@@ -9194,7 +9159,7 @@
       <c r="J9" s="45"/>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11">
       <c r="D10" s="55" t="s">
         <v>187</v>
       </c>
@@ -9225,7 +9190,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11">
       <c r="D11" s="55" t="s">
         <v>186</v>
       </c>
@@ -9247,7 +9212,7 @@
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11">
       <c r="D12" s="55" t="s">
         <v>188</v>
       </c>
@@ -9278,7 +9243,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11">
       <c r="D13" s="55" t="s">
         <v>189</v>
       </c>
@@ -9300,7 +9265,7 @@
       <c r="J13" s="45"/>
       <c r="K13" s="46"/>
     </row>
-    <row r="14" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:11" ht="17.25" thickBot="1">
       <c r="D14" s="56" t="s">
         <v>190</v>
       </c>
@@ -9329,17 +9294,17 @@
       </c>
       <c r="K14" s="48"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11">
       <c r="C16" s="51" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="17.25" thickBot="1">
       <c r="C17" s="51" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12">
       <c r="D18" s="53" t="s">
         <v>183</v>
       </c>
@@ -9361,7 +9326,7 @@
       <c r="J18" s="43"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12">
       <c r="D19" s="54" t="s">
         <v>191</v>
       </c>
@@ -9392,7 +9357,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12">
       <c r="D20" s="55" t="s">
         <v>192</v>
       </c>
@@ -9416,7 +9381,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="17.25" thickBot="1">
       <c r="D21" s="56" t="s">
         <v>230</v>
       </c>
@@ -9450,23 +9415,23 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12">
       <c r="B23" s="51" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12">
       <c r="B24" s="51"/>
       <c r="C24" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="17.25" thickBot="1">
       <c r="C25" s="51" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12">
       <c r="D26" s="53" t="s">
         <v>195</v>
       </c>
@@ -9492,7 +9457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" ht="17.25" thickBot="1">
       <c r="D27" s="57" t="s">
         <v>197</v>
       </c>
@@ -9521,16 +9486,16 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12">
       <c r="D28" s="41"/>
     </row>
-    <row r="29" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" ht="17.25" thickBot="1">
       <c r="C29" s="51" t="s">
         <v>218</v>
       </c>
       <c r="D29" s="41"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12">
       <c r="D30" s="53" t="s">
         <v>200</v>
       </c>
@@ -9554,7 +9519,7 @@
       </c>
       <c r="K30" s="44"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12">
       <c r="D31" s="54" t="s">
         <v>220</v>
       </c>
@@ -9583,7 +9548,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12">
       <c r="D32" s="54" t="s">
         <v>221</v>
       </c>
@@ -9614,7 +9579,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:11">
       <c r="D33" s="54" t="s">
         <v>223</v>
       </c>
@@ -9645,7 +9610,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:11">
       <c r="D34" s="54" t="s">
         <v>201</v>
       </c>
@@ -9669,7 +9634,7 @@
       </c>
       <c r="K34" s="46"/>
     </row>
-    <row r="35" spans="4:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:11" ht="17.25" thickBot="1">
       <c r="D35" s="57" t="s">
         <v>81</v>
       </c>
@@ -9698,19 +9663,28 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:11">
       <c r="F36">
         <f>1/F30*1000</f>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:11">
+      <c r="H38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11">
       <c r="F39">
         <f>1/F8*1000</f>
         <v>1.25E-4</v>
       </c>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.4">
+      <c r="H39">
+        <f>H38*H34/100</f>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11">
       <c r="F41">
         <f>F36/F39</f>
         <v>100</v>
@@ -9724,34 +9698,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="67"/>
-    <col min="3" max="3" width="12.69921875" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="66" customWidth="1"/>
     <col min="8" max="8" width="9" style="67"/>
-    <col min="9" max="9" width="11.8984375" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.59765625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="17.25" thickBot="1">
       <c r="B2" s="67" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="67" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" s="67" customFormat="1">
       <c r="B3" s="85" t="s">
         <v>317</v>
       </c>
@@ -9789,7 +9763,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13">
       <c r="B4" s="75">
         <v>1</v>
       </c>
@@ -9821,7 +9795,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13">
       <c r="B5" s="75">
         <v>3</v>
       </c>
@@ -9857,7 +9831,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13">
       <c r="B6" s="75">
         <v>5</v>
       </c>
@@ -9891,7 +9865,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13">
       <c r="B7" s="75">
         <v>7</v>
       </c>
@@ -9925,7 +9899,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13">
       <c r="B8" s="75">
         <v>9</v>
       </c>
@@ -9959,7 +9933,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13">
       <c r="B9" s="75">
         <v>11</v>
       </c>
@@ -9989,7 +9963,7 @@
       </c>
       <c r="M9" s="69"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13">
       <c r="B10" s="75">
         <v>13</v>
       </c>
@@ -10019,7 +9993,7 @@
       </c>
       <c r="M10" s="69"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13">
       <c r="B11" s="75">
         <v>15</v>
       </c>
@@ -10049,7 +10023,7 @@
       </c>
       <c r="M11" s="69"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13">
       <c r="B12" s="75">
         <v>17</v>
       </c>
@@ -10079,7 +10053,7 @@
       </c>
       <c r="M12" s="69"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13">
       <c r="B13" s="75">
         <v>19</v>
       </c>
@@ -10109,7 +10083,7 @@
       </c>
       <c r="M13" s="72"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13">
       <c r="B14" s="75">
         <v>21</v>
       </c>
@@ -10141,7 +10115,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13">
       <c r="B15" s="75">
         <v>23</v>
       </c>
@@ -10171,7 +10145,7 @@
       </c>
       <c r="M15" s="72"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13">
       <c r="B16" s="75">
         <v>25</v>
       </c>
@@ -10203,7 +10177,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13">
       <c r="B17" s="75">
         <v>27</v>
       </c>
@@ -10235,7 +10209,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13">
       <c r="B18" s="75">
         <v>29</v>
       </c>
@@ -10269,7 +10243,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13">
       <c r="B19" s="75">
         <v>31</v>
       </c>
@@ -10303,7 +10277,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13">
       <c r="B20" s="75">
         <v>33</v>
       </c>
@@ -10333,7 +10307,7 @@
       </c>
       <c r="M20" s="69"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13">
       <c r="B21" s="75">
         <v>35</v>
       </c>
@@ -10363,7 +10337,7 @@
       </c>
       <c r="M21" s="69"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13">
       <c r="B22" s="75">
         <v>37</v>
       </c>
@@ -10395,7 +10369,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" ht="17.25" thickBot="1">
       <c r="B23" s="76">
         <v>39</v>
       </c>
@@ -10425,12 +10399,12 @@
       </c>
       <c r="M23" s="71"/>
     </row>
-    <row r="25" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" ht="17.25" thickBot="1">
       <c r="B25" s="67" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="67" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" s="67" customFormat="1">
       <c r="B26" s="85" t="s">
         <v>317</v>
       </c>
@@ -10468,7 +10442,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13">
       <c r="B27" s="75">
         <v>1</v>
       </c>
@@ -10502,7 +10476,7 @@
       </c>
       <c r="M27" s="72"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13">
       <c r="B28" s="75">
         <v>3</v>
       </c>
@@ -10534,7 +10508,7 @@
       </c>
       <c r="M28" s="69"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13">
       <c r="B29" s="75">
         <v>5</v>
       </c>
@@ -10568,7 +10542,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13">
       <c r="B30" s="75">
         <v>7</v>
       </c>
@@ -10598,7 +10572,7 @@
       </c>
       <c r="M30" s="69"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13">
       <c r="B31" s="75">
         <v>9</v>
       </c>
@@ -10630,7 +10604,7 @@
       </c>
       <c r="M31" s="69"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13">
       <c r="B32" s="75">
         <v>11</v>
       </c>
@@ -10662,7 +10636,7 @@
       </c>
       <c r="M32" s="69"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13">
       <c r="B33" s="75">
         <v>13</v>
       </c>
@@ -10698,7 +10672,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13">
       <c r="B34" s="75">
         <v>15</v>
       </c>
@@ -10732,7 +10706,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13">
       <c r="B35" s="75">
         <v>17</v>
       </c>
@@ -10764,7 +10738,7 @@
       </c>
       <c r="M35" s="69"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13">
       <c r="B36" s="75">
         <v>19</v>
       </c>
@@ -10796,7 +10770,7 @@
       </c>
       <c r="M36" s="69"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13">
       <c r="B37" s="75">
         <v>21</v>
       </c>
@@ -10832,7 +10806,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13">
       <c r="B38" s="75">
         <v>23</v>
       </c>
@@ -10868,7 +10842,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13">
       <c r="B39" s="75">
         <v>25</v>
       </c>
@@ -10898,7 +10872,7 @@
       </c>
       <c r="M39" s="69"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13">
       <c r="B40" s="75">
         <v>27</v>
       </c>
@@ -10932,7 +10906,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13">
       <c r="B41" s="75">
         <v>29</v>
       </c>
@@ -10966,7 +10940,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13">
       <c r="B42" s="75">
         <v>31</v>
       </c>
@@ -11000,7 +10974,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13">
       <c r="B43" s="75">
         <v>33</v>
       </c>
@@ -11034,7 +11008,7 @@
       </c>
       <c r="M43" s="69"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13">
       <c r="B44" s="75">
         <v>35</v>
       </c>
@@ -11066,7 +11040,7 @@
       </c>
       <c r="M44" s="69"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13">
       <c r="B45" s="75">
         <v>37</v>
       </c>
@@ -11096,7 +11070,7 @@
       </c>
       <c r="M45" s="69"/>
     </row>
-    <row r="46" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:13" ht="17.25" thickBot="1">
       <c r="B46" s="76">
         <v>39</v>
       </c>
@@ -11134,27 +11108,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="6" width="15.59765625" customWidth="1"/>
-    <col min="7" max="7" width="3.59765625" customWidth="1"/>
-    <col min="9" max="12" width="15.59765625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="9" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="17.25" thickBot="1">
       <c r="B2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12">
       <c r="B3" s="350" t="s">
         <v>317</v>
       </c>
@@ -11178,7 +11152,7 @@
       </c>
       <c r="L3" s="349"/>
     </row>
-    <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="17.25" thickBot="1">
       <c r="B4" s="351"/>
       <c r="C4" s="188" t="s">
         <v>513</v>
@@ -11206,7 +11180,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12">
       <c r="B5" s="181">
         <v>1</v>
       </c>
@@ -11238,7 +11212,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12">
       <c r="B6" s="182">
         <v>3</v>
       </c>
@@ -11270,7 +11244,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:12">
       <c r="B7" s="182">
         <v>5</v>
       </c>
@@ -11302,7 +11276,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12">
       <c r="B8" s="182">
         <v>7</v>
       </c>
@@ -11334,7 +11308,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12">
       <c r="B9" s="182">
         <v>9</v>
       </c>
@@ -11366,7 +11340,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:12">
       <c r="B10" s="182">
         <v>11</v>
       </c>
@@ -11390,7 +11364,7 @@
       <c r="K10" s="186"/>
       <c r="L10" s="179"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12">
       <c r="B11" s="182">
         <v>13</v>
       </c>
@@ -11414,7 +11388,7 @@
       <c r="K11" s="186"/>
       <c r="L11" s="179"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12">
       <c r="B12" s="182">
         <v>15</v>
       </c>
@@ -11438,7 +11412,7 @@
       <c r="K12" s="186"/>
       <c r="L12" s="179"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12">
       <c r="B13" s="182">
         <v>17</v>
       </c>
@@ -11462,7 +11436,7 @@
       <c r="K13" s="186"/>
       <c r="L13" s="179"/>
     </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" ht="17.25" thickBot="1">
       <c r="B14" s="183">
         <v>19</v>
       </c>
@@ -11486,55 +11460,55 @@
       <c r="K14" s="187"/>
       <c r="L14" s="180"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:12">
       <c r="B15" s="176" t="s">
         <v>522</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12">
       <c r="B16" s="176" t="s">
         <v>504</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5">
       <c r="B17" s="176" t="s">
         <v>505</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5">
       <c r="B18" s="176" t="s">
         <v>521</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5">
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="E27" s="67"/>
